--- a/medicine/Enfance/Anthony_Burgess/Anthony_Burgess.xlsx
+++ b/medicine/Enfance/Anthony_Burgess/Anthony_Burgess.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthony Burgess, de son nom complet John Anthony Burgess Wilson, est un écrivain, musicien et linguiste britannique, né le 25 février 1917 à Manchester (Angleterre) et mort le 25 novembre 1993 à St. John's Wood à Londres. 
 Son nom de plume, Burgess, était celui de sa mère.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1917, il étudie, dans les années 1930, la linguistique et la littérature. 
 De 1940 à 1946, il sert dans l'armée britannique.
@@ -554,18 +568,102 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Trilogie The Long Day Wanes
-Time for a Tiger (1956)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie The Long Day Wanes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Time for a Tiger (1956)
 The Enemy in the Blanket (1958)
-Beds in the East (1959)
-Quatuor Enderby
-Inside Mr. Enderby (1963), signé Joseph Kell Publié en français sous le titre Monsieur Enderby, Paris, Acropole, 1983
+Beds in the East (1959)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Quatuor Enderby</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Inside Mr. Enderby (1963), signé Joseph Kell Publié en français sous le titre Monsieur Enderby, Paris, Acropole, 1983
 Enderby Outside (1968)
 The Clockwork Testament, or Enderby's End (1974) Publié en français sous le titre Le Testament de l'orange, Paris, Robert Laffont, coll. Pavillons, 1975 ; réédition, Paris, Le Livre de poche no 5736, 1983 ; réédition, Paris, Pocket no 4354, 1996 ; réédition, Paris, Robert Laffont, coll. Pavillons poche, 2011
-Enderby's Dark Lady, or No End of Enderby (1984)
-Autres romans
-The Right to an Answer (1960) Publié en français sous le titre Mr Raj, Paris, Le Cherche Midi, coll. Ailleurs, 2003
+Enderby's Dark Lady, or No End of Enderby (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Right to an Answer (1960) Publié en français sous le titre Mr Raj, Paris, Le Cherche Midi, coll. Ailleurs, 2003
 The Doctor is Sick (1960) Publié en français sous le titre Le docteur est malade, Paris, Le Cherche Midi, coll. Ailleurs, 2001 ; réédition, Paris, 10/18 no 3492, 2003
 The Worm and the Ring (1960)
 Devil of a State (1961)
@@ -590,37 +688,343 @@
 The Pianoplayers (1986) Publié en français sous le titre Pianistes, Paris, Grasset, 1989 ; réédition, Paris, Le Livre de poche no 6949, 1991 ; réédition, Paris, Grasset, coll. Cahiers rouges, 1994
 Any Old Iron (1988) Publié en français sous le titre Ferraille à vendre, Paris, Grasset, 1993 ; réédition, Paris, Le Livre de poche no 14140, 1997
 Mozart and the Wolf Gang (1991) Publié en français sous le titre Mozart et Amadeus, Paris, Grasset, 1993
-A Dead Man in Deptford (1993) Publié en français sous le titre Mort à Deptford, Paris, Grasset, 1995
-Poésie
-Moses: A Narrative (1976)
+A Dead Man in Deptford (1993) Publié en français sous le titre Mort à Deptford, Paris, Grasset, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Moses: A Narrative (1976)
 Revolutionary Sonnets and Other Poems (2002)
-Byrne (1995), roman en vers
-Théâtre
-Oberon Old and New (1985), nouveau livret pour l'opéra Carl Maria von Weber
+Byrne (1995), roman en vers</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Oberon Old and New (1985), nouveau livret pour l'opéra Carl Maria von Weber
 Blooms of Dublin: A Musical Play Based On James Joyce's Ulysses (1986)
-A Clockwork Orange: A Play With Music (1987)
-Recueil de nouvelles
-The Devil's Mode and Other Stories (1989) Publié en français sous le titre Le Mode du diable, Paris, Grasset, 1999
-Nouvelles isolées
-An American Organ (1968)
+A Clockwork Orange: A Play With Music (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Devil's Mode and Other Stories (1989) Publié en français sous le titre Le Mode du diable, Paris, Grasset, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles isolées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>An American Organ (1968)
 I Wish My Wife Was Dead (1969)
-Will and Testament: A Fragment of Biography (1977), réécriture de la nouvelle Proofs of Holy Writ de Rudyard Kipling
-Littérature d'enfance et de jeunesse
-A Long Trip to Tea Time (1976)
-The Land Where The Ice Cream Grows (1979), en collaboration avec Fulvio Testa Publié en français sous le titre Le Pays où poussent les glaces, Paris, Gallimard, Folio benjamin no 67, 1982
-Autobiographie
-Little Wilson and Big God, Being the First Part of the Confessions of Anthony Burgess (1986) Publié en français sous le titre Petit Wilson et Dieu le Père, Paris, Grasset, 1996
-You've Had Your Time, Being the Second Part of the Confessions of Anthony Burgess (1990) Publié en français sous le titre Si mon temps m'était compté, Paris, Grasset, 2000
-Recueils d'articles de journal
-Urgent Copy: Literary Studies (1968)
+Will and Testament: A Fragment of Biography (1977), réécriture de la nouvelle Proofs of Holy Writ de Rudyard Kipling</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>A Long Trip to Tea Time (1976)
+The Land Where The Ice Cream Grows (1979), en collaboration avec Fulvio Testa Publié en français sous le titre Le Pays où poussent les glaces, Paris, Gallimard, Folio benjamin no 67, 1982</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Little Wilson and Big God, Being the First Part of the Confessions of Anthony Burgess (1986) Publié en français sous le titre Petit Wilson et Dieu le Père, Paris, Grasset, 1996
+You've Had Your Time, Being the Second Part of the Confessions of Anthony Burgess (1990) Publié en français sous le titre Si mon temps m'était compté, Paris, Grasset, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Recueils d'articles de journal</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Urgent Copy: Literary Studies (1968)
 Homage to Qwert Yuiop: Selected Journalism 1978–1985 (1986) Publié en français sous le titre Hommage à Qwert Yuiop, Paris, Grasset, 1988 ; réédition, Paris, Le Livre de poche no 6668, 1989 ; nouvelle édition sous le titre Mais les blondes préfèrent-elles les hommes, Paris, Grasset, coll. "Cahiers rouges", 2014
-One Man's Chorus: The Uncollected Writings, ed. Ben Forkner (1998)
-Biographies
-Shakespeare (1970) Publié en français sous le titre Shakespeare, Paris, Buchet-Chastel, 1972
+One Man's Chorus: The Uncollected Writings, ed. Ben Forkner (1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Shakespeare (1970) Publié en français sous le titre Shakespeare, Paris, Buchet-Chastel, 1972
 Ernest Hemingway and his World (1978) Publié en français sous le titre Ce sacré Hemingway, Paris, Fayard, 1979
-Flame into Being: The Life and Work of D. H. Lawrence (1985) Publié en français sous le titre D.H. Lawrence ou le Feu au cœur, Paris, Grasset, 1990
-Essais
-English Literature: A Survey for Students (1958), édition révisée en 1974
+Flame into Being: The Life and Work of D. H. Lawrence (1985) Publié en français sous le titre D.H. Lawrence ou le Feu au cœur, Paris, Grasset, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>English Literature: A Survey for Students (1958), édition révisée en 1974
 The Novel To-day (1963)
 Language Made Plain (1964)
 The Novel Now: A Student's Guide to Contemporary Fiction (1967)
@@ -639,9 +1043,43 @@
 Childhood (1996)
 Rencontre au Sommet (1998), entretiens entre Burgess and Isaac Bashevis Singer Publié en français sous le titre Rencontre au sommet, Paris, Éditions Mille et une nuits, La petite collection no 205, 1998
 Spain: The Best Travel Writing from the New York Times (2001), ouvrage en collaboration
-Return Trip Tango and Other Stories from Abroad (2003), ouvrage en collaboration
-Musique
-Musicien accompli, Burgess a composé régulièrement tout au long de sa vie. Il a déclaré : « Je souhaite que les gens me pensent plutôt comme un musicien qui écrit des romans plutôt que comme un romancier qui compose aussi de la musique ». Nombre de ses œuvres furent diffusées sur la BBC de son vivant. Sa 3e Symphonie en Ut a été exécutée pour la première fois en 1975 par l'Orchestre de l'Université de l'Iowa.
+Return Trip Tango and Other Stories from Abroad (2003), ouvrage en collaboration</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Musicien accompli, Burgess a composé régulièrement tout au long de sa vie. Il a déclaré : « Je souhaite que les gens me pensent plutôt comme un musicien qui écrit des romans plutôt que comme un romancier qui compose aussi de la musique ». Nombre de ses œuvres furent diffusées sur la BBC de son vivant. Sa 3e Symphonie en Ut a été exécutée pour la première fois en 1975 par l'Orchestre de l'Université de l'Iowa.
 Burgess décrit sa Sinfoni Melayu comme une tentative de « combiner les éléments musicaux du pays (la Malaisie) dans un langage synthétique qui requiert des tambours autochtones et des xylophones ».
 La structure de son roman La Symphonie Napoléon (1974) a été calquée sur la Symphonie Héroïque de Beethoven tandis que Mozart et Amadeus imite le son et le rythme d'un composition mozartienne, tentant, entre autres, de représenter une version fictionnelle de la 40e Symphonie de Mozart. La 9e Symphonie de Beethoven joue un rôle prééminent dans L'Orange Mécanique (aussi bien que dans le film homonyme de Stanley Kubrick). Beaucoup de ses compositions inédites sont listées dans Cet Homme et la musique. Il écrivit de nombreuses pièces pour flûte à bec car son fils jouait de cet instrument. Une grande partie d'entre elles, pour flûte à bec et piano, sont regroupées dans un CD incluant la sonate no 1, la sonatine et Tre Pezzetti jouées par John Turner et le pianiste Harvey Davies (double CD incluant des œuvres de 15 autres compositeurs intitulé Anthony Burgess, L'Homme et sa Musique Metier records, septembre 2013).
 Texte tiré du Wikipédia en Anglais. Pour plus d'information voir : Anthony Burgess bibliography § Selected musical compositions
@@ -651,37 +1089,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anthony_Burgess</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthony_Burgess</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>« Du jour où vous supprimez le mal, vous en faites autant du libre-arbitre. Il est absolument nécessaire d'avoir à choisir, et cela ne peut être qu'entre le bien et le mal. Sans choix, fini l'humanité. On devient autre chose. Ou alors, on est mort. »
 « Considérer l'homme comme un consommateur, c'est tout simplement lui faire perdre son identité, sa véritable image… »
 « Heureux sont ceux dont la vie a été achevée, accomplie. »
-« L'amour et la tolérance sont la seule réponse au problème de la vie. Ce précepte, très simple, et infiniment difficile à appliquer, peut être accepté, compris par quiconque, croyant ou non-croyant. C'est la seule voie. »[1]
-« L'art, parce qu'il est liberté, est aussi subversion. Aucun État ne peut aimer les artistes, à moins qu'ils ne disent ce qu'il souhaite entendre. Ce qui est la négation de l'art. »[2]</t>
+« L'amour et la tolérance sont la seule réponse au problème de la vie. Ce précepte, très simple, et infiniment difficile à appliquer, peut être accepté, compris par quiconque, croyant ou non-croyant. C'est la seule voie. »
+« L'art, parce qu'il est liberté, est aussi subversion. Aucun État ne peut aimer les artistes, à moins qu'ils ne disent ce qu'il souhaite entendre. Ce qui est la négation de l'art. »</t>
         </is>
       </c>
     </row>
